--- a/Đánh giá đề tài lần 1-1.xlsx
+++ b/Đánh giá đề tài lần 1-1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Nhat Hao\Downloads\CÔNG NGHỆ PHẦN MỀM NÂNG CAO\CNPMNC-Nhom3\CNPMNC\CNPMNC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFB66FC-7FFF-4490-8296-103146DD2292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6070CEB8-6AF9-4CE8-8B74-C950AE3DE7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4061D212-9EB7-448B-B9ED-C69CCE673CF6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4061D212-9EB7-448B-B9ED-C69CCE673CF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -126,39 +137,6 @@
     <t>Muốn tìm kiếm các hệ thống cửa hàng gần nhất với vị trí của Tôiđể mua thức ăn</t>
   </si>
   <si>
-    <t xml:space="preserve">Tôi muốn đánh giá năng lực của nhân viên để sắp xếp theo vị trí phù hợp </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tôi muốn quản lý thông tin sản phẩm để giúp nhân viên hiểu rõ thông tin của sản phẩm và đảm bảo nguồn cung đầy đủ  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tôimuốn quản lý các đánh giá của khách hàng để tối ưu được các ưu nhược điểm </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tôimuốn quản lý khách hàng đăng kí để tránh những tài khoản giả mạo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tôimuốn quản lý các thông tin sản phẩm để xem những món hàng bán chạy nhất của cửa hàng </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tôimuốn quản lý website để xem được các khách hàng thân thiết </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tôimuốn chăm sóc khách hàng định kỳ để tạo mối quan hệ thân thiết với khách hàng </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tôimuốn thống kê những hàng tồn kho để chuẩn bị cho ngày hôm sau </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tôimuốn thống kê doanh số sản phẩm đã bán được để báo cáo với quản lý cửa hàng </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tôimuốn quản lý đơn hàng để cho khách hàng tránh sự nhầm lẫn  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tôimuốn thanh toán hóa đơn cho khách hàng để hoàn tất quá trình mua hàng </t>
-  </si>
-  <si>
     <t xml:space="preserve">Thanh toán hóa đơn </t>
   </si>
   <si>
@@ -195,10 +173,43 @@
     <t>Muốn đánh giá năng</t>
   </si>
   <si>
-    <t xml:space="preserve">Tôi muốn quản lý nhân viên của cửa hàng  để sắp xếp lịch/ ca làm việc cho nhân viên </t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muốn thanh toán hóa đơn cho khách hàng để hoàn tất quá trình mua hàng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muốn quản lý đơn hàng để cho khách hàng tránh sự nhầm lẫn  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muốn thống kê doanh số sản phẩm đã bán được để báo cáo với quản lý cửa hàng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muốn thống kê những hàng tồn kho để chuẩn bị cho ngày hôm sau </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muốn chăm sóc khách hàng định kỳ để tạo mối quan hệ thân thiết với khách hàng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muốn quản lý website để xem được các khách hàng thân thiết </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muốn quản lý các thông tin sản phẩm để xem những món hàng bán chạy nhất của cửa hàng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muốn quản lý khách hàng đăng kí để tránh những tài khoản giả mạo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muốn quản lý các đánh giá của khách hàng để tối ưu được các ưu nhược điểm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muốn quản lý nhân viên của cửa hàng  để sắp xếp lịch/ ca làm việc cho nhân viên </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muốn quản lý thông tin sản phẩm để giúp nhân viên hiểu rõ thông tin của sản phẩm và đảm bảo nguồn cung đầy đủ  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muốn đánh giá năng lực của nhân viên để sắp xếp theo vị trí phù hợp </t>
   </si>
 </sst>
 </file>
@@ -259,7 +270,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -319,22 +330,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -347,6 +367,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -663,20 +686,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC59DBBD-3F62-451C-9BD4-526278DD8968}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="143.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="143.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -693,16 +716,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.45">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.45">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -715,7 +738,7 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <f>A3+1</f>
         <v>2</v>
@@ -729,7 +752,7 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <f t="shared" ref="A5:A8" si="0">A4+1</f>
         <v>3</v>
@@ -743,7 +766,7 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -757,7 +780,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -771,7 +794,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -785,16 +808,16 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.45">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-    </row>
-    <row r="10" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.45">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>1</v>
       </c>
@@ -804,14 +827,10 @@
       <c r="C10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.45">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <f>A10+1</f>
         <v>2</v>
@@ -822,16 +841,12 @@
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="5">
-        <v>2</v>
-      </c>
-      <c r="E11" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.45">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
-        <f t="shared" ref="A12:A29" si="1">A11+1</f>
+        <f t="shared" ref="A12:A26" si="1">A11+1</f>
         <v>3</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -840,14 +855,10 @@
       <c r="C12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="5">
-        <v>2</v>
-      </c>
-      <c r="E12" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.45">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -858,15 +869,11 @@
       <c r="C13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="5">
-        <v>3</v>
-      </c>
-      <c r="E13" s="5">
-        <v>8</v>
-      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -877,14 +884,10 @@
       <c r="C14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="5">
-        <v>2</v>
-      </c>
-      <c r="E14" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.45">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -892,312 +895,259 @@
       <c r="B15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="5">
-        <v>3</v>
-      </c>
-      <c r="E15" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.45">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="6" t="s">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.45">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
-        <f>A16+1</f>
         <v>1</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="5">
-        <v>2</v>
-      </c>
-      <c r="E17" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.45">
+        <v>46</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="5">
-        <v>2</v>
-      </c>
-      <c r="E18" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.45">
+        <v>47</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="5">
-        <v>3</v>
-      </c>
-      <c r="E19" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="5">
-        <v>3</v>
-      </c>
-      <c r="E20" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.45">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6" t="s">
+    <row r="22" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A22" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.45">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="5">
-        <v>2</v>
-      </c>
-      <c r="E23" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="5">
-        <v>2</v>
-      </c>
-      <c r="E24" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="5">
-        <v>2</v>
-      </c>
-      <c r="E25" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="5">
-        <v>2</v>
-      </c>
-      <c r="E26" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.45">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A27" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.45">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="10"/>
+    </row>
+    <row r="28" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>1</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A29" s="11">
+        <v>2</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="5">
-        <v>2</v>
-      </c>
-      <c r="E28" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.45">
-      <c r="A29" s="5">
-        <v>2</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="5">
-        <v>2</v>
-      </c>
-      <c r="E29" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.45">
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>3</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>55</v>
+      <c r="B30" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="5">
-        <v>2</v>
-      </c>
-      <c r="E30" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.45">
-      <c r="A31" s="5"/>
+        <v>57</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A31" s="12"/>
       <c r="B31" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="1">
-        <f>MIN(D3:D30)</f>
-        <v>1</v>
-      </c>
-      <c r="E31" s="1">
-        <f>MIN(E3:E30)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A16:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Đánh giá đề tài lần 1-1.xlsx
+++ b/Đánh giá đề tài lần 1-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Nhat Hao\Downloads\CÔNG NGHỆ PHẦN MỀM NÂNG CAO\CNPMNC-Nhom3\CNPMNC\CNPMNC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6070CEB8-6AF9-4CE8-8B74-C950AE3DE7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91E7E8C-AC09-4836-BE34-BBAF72DF8F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4061D212-9EB7-448B-B9ED-C69CCE673CF6}"/>
   </bookViews>
@@ -134,9 +134,6 @@
     <t>Đánh giá và phản hồi chất lượng</t>
   </si>
   <si>
-    <t>Muốn tìm kiếm các hệ thống cửa hàng gần nhất với vị trí của Tôiđể mua thức ăn</t>
-  </si>
-  <si>
     <t xml:space="preserve">Thanh toán hóa đơn </t>
   </si>
   <si>
@@ -210,6 +207,9 @@
   </si>
   <si>
     <t xml:space="preserve">Muốn đánh giá năng lực của nhân viên để sắp xếp theo vị trí phù hợp </t>
+  </si>
+  <si>
+    <t>Muốn tìm kiếm các hệ thống cửa hàng gần nhất với vị trí của Tôi để mua thức ăn</t>
   </si>
 </sst>
 </file>
@@ -686,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC59DBBD-3F62-451C-9BD4-526278DD8968}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,7 +803,7 @@
         <v>25</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -915,10 +915,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -929,10 +929,10 @@
         <v>2</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -943,10 +943,10 @@
         <v>3</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -957,10 +957,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -971,10 +971,10 @@
         <v>5</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -993,10 +993,10 @@
         <v>1</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1007,10 +1007,10 @@
         <v>2</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -1021,10 +1021,10 @@
         <v>3</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -1035,10 +1035,10 @@
         <v>4</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -1057,10 +1057,10 @@
         <v>1</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -1070,10 +1070,10 @@
         <v>2</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -1083,10 +1083,10 @@
         <v>3</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -1094,7 +1094,7 @@
     <row r="31" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A31" s="12"/>
       <c r="B31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
